--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bill/PycharmProjects/NetworkAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A144E03-5D7C-D647-929A-991E1A1C5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45039FC9-7444-1840-BDE9-E600C6E6589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{1059C78E-0947-7B47-A4FE-A8D9D24BA180}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{1059C78E-0947-7B47-A4FE-A8D9D24BA180}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="1" r:id="rId1"/>
+    <sheet name="Lines" sheetId="2" r:id="rId2"/>
+    <sheet name="Vehicles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Station Name</t>
   </si>
@@ -59,6 +61,30 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Assigned Line</t>
+  </si>
+  <si>
+    <t>Starting Stop</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Vehicle ID</t>
+  </si>
+  <si>
+    <t>Port Melbourne</t>
   </si>
 </sst>
 </file>
@@ -410,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F90C7-9ED0-7A46-8E41-9C23FF07A5D1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,6 +513,264 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1.5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D00C96-A78A-754E-8774-00008BFE4D86}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D99D19-3942-F14F-A55F-573505C7C129}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
